--- a/kvision/ksample/mytable/BaiduOCRConverter_Excel/013_0d9d7.xlsx
+++ b/kvision/ksample/mytable/BaiduOCRConverter_Excel/013_0d9d7.xlsx
@@ -39,7 +39,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -61,11 +61,58 @@
         <color rgb="00FF0000"/>
       </bottom>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="00FF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="00FF0000"/>
+      </right>
+      <top style="thick">
+        <color rgb="00FF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="00FF0000"/>
+      </right>
+      <top style="thick">
+        <color rgb="00FF0000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="00FF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
@@ -74,6 +121,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,359 +499,359 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>(人民币百万元)</t>
         </is>
       </c>
-      <c r="B1" s="2" t="n"/>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="B1" s="4" t="n"/>
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>2018E</t>
         </is>
       </c>
-      <c r="D1" s="3" t="n"/>
-      <c r="E1" s="2" t="n"/>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="D1" s="5" t="n"/>
+      <c r="E1" s="4" t="n"/>
+      <c r="F1" s="4" t="inlineStr">
         <is>
           <t>2019E</t>
         </is>
       </c>
-      <c r="G1" s="2" t="n"/>
+      <c r="G1" s="4" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n"/>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>调整前</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>调整后</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" s="4" t="inlineStr">
         <is>
           <t>调整幅度</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E2" s="4" t="inlineStr">
         <is>
           <t>调整前</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" s="4" t="inlineStr">
         <is>
           <t>调整后</t>
         </is>
       </c>
-      <c r="G2" s="2" t="inlineStr">
+      <c r="G2" s="4" t="inlineStr">
         <is>
           <t>调整幅度</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>营业收入</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr">
         <is>
           <t>158</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" s="4" t="inlineStr">
         <is>
           <t>132</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="D3" s="4" t="inlineStr">
         <is>
           <t>-16.3%</t>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="E3" s="4" t="inlineStr">
         <is>
           <t>186</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F3" s="4" t="inlineStr">
         <is>
           <t>138</t>
         </is>
       </c>
-      <c r="G3" s="2" t="inlineStr">
+      <c r="G3" s="4" t="inlineStr">
         <is>
           <t>-25.7%</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>毛利润</t>
         </is>
       </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="C4" s="4" t="inlineStr">
         <is>
           <t>85</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="D4" s="4" t="inlineStr">
         <is>
           <t>-15.1%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="E4" s="4" t="inlineStr">
         <is>
           <t>124</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="F4" s="4" t="inlineStr">
         <is>
           <t>91</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="G4" s="4" t="inlineStr">
         <is>
           <t>-26.0%</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>营业利润</t>
         </is>
       </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>73</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>61</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="D5" s="4" t="inlineStr">
         <is>
           <t>-15.5%</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="E5" s="4" t="inlineStr">
         <is>
           <t>92</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="F5" s="4" t="inlineStr">
         <is>
           <t>67</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
+      <c r="G5" s="4" t="inlineStr">
         <is>
           <t>-26.9%</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>归母净利润</t>
         </is>
       </c>
-      <c r="B6" s="2" t="inlineStr">
+      <c r="B6" s="4" t="inlineStr">
         <is>
           <t>58</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
+      <c r="C6" s="4" t="inlineStr">
         <is>
           <t>49</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="D6" s="4" t="inlineStr">
         <is>
           <t>-14.8%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="E6" s="4" t="inlineStr">
         <is>
           <t>74</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="F6" s="4" t="inlineStr">
         <is>
           <t>54</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="G6" s="4" t="inlineStr">
         <is>
           <t>-26.5%</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>全面摊薄每股收益（元）</t>
         </is>
       </c>
-      <c r="B7" s="2" t="inlineStr">
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>0.16</t>
         </is>
       </c>
-      <c r="C7" s="2" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>0.14</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="D7" s="4" t="inlineStr">
         <is>
           <t>-14.8%</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="E7" s="4" t="inlineStr">
         <is>
           <t>0.21</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="F7" s="4" t="inlineStr">
         <is>
           <t>0.15</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
+      <c r="G7" s="4" t="inlineStr">
         <is>
           <t>-26.5%</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n"/>
-      <c r="B8" s="2" t="n"/>
-      <c r="C8" s="2" t="n"/>
-      <c r="D8" s="2" t="n"/>
-      <c r="E8" s="2" t="n"/>
-      <c r="F8" s="2" t="n"/>
-      <c r="G8" s="2" t="n"/>
+      <c r="A8" s="4" t="n"/>
+      <c r="B8" s="4" t="n"/>
+      <c r="C8" s="4" t="n"/>
+      <c r="D8" s="4" t="n"/>
+      <c r="E8" s="4" t="n"/>
+      <c r="F8" s="4" t="n"/>
+      <c r="G8" s="4" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="A9" s="4" t="inlineStr">
         <is>
           <t>毛利率</t>
         </is>
       </c>
-      <c r="B9" s="2" t="inlineStr">
+      <c r="B9" s="4" t="inlineStr">
         <is>
           <t>63.2%</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="C9" s="4" t="inlineStr">
         <is>
           <t>64.1%</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="D9" s="4" t="inlineStr">
         <is>
           <t>0.9%</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="E9" s="4" t="inlineStr">
         <is>
           <t>66.6%</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
+      <c r="F9" s="4" t="inlineStr">
         <is>
           <t>66.4%</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
+      <c r="G9" s="4" t="inlineStr">
         <is>
           <t>-0.2%</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" s="4" t="inlineStr">
         <is>
           <t>营业利润率</t>
         </is>
       </c>
-      <c r="B10" s="2" t="inlineStr">
+      <c r="B10" s="4" t="inlineStr">
         <is>
           <t>46.2%</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
+      <c r="C10" s="4" t="inlineStr">
         <is>
           <t>46.6%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="D10" s="4" t="inlineStr">
         <is>
           <t>0.4%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="E10" s="4" t="inlineStr">
         <is>
           <t>49.6%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="F10" s="4" t="inlineStr">
         <is>
           <t>48.9%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
+      <c r="G10" s="4" t="inlineStr">
         <is>
           <t>-0.7%</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" s="4" t="inlineStr">
         <is>
           <t>净利润率</t>
         </is>
       </c>
-      <c r="B11" s="2" t="inlineStr">
+      <c r="B11" s="4" t="inlineStr">
         <is>
           <t>36.8%</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
+      <c r="C11" s="4" t="inlineStr">
         <is>
           <t>37.4%</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="D11" s="4" t="inlineStr">
         <is>
           <t>0.7%</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="E11" s="4" t="inlineStr">
         <is>
           <t>39.6%</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
+      <c r="F11" s="4" t="inlineStr">
         <is>
           <t>39.2%</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
+      <c r="G11" s="4" t="inlineStr">
         <is>
           <t>-0.4%</t>
         </is>

--- a/kvision/ksample/mytable/BaiduOCRConverter_Excel/013_0d9d7.xlsx
+++ b/kvision/ksample/mytable/BaiduOCRConverter_Excel/013_0d9d7.xlsx
@@ -39,7 +39,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -108,11 +108,58 @@
         <color rgb="00000000"/>
       </bottom>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="00000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="00000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00101010"/>
+      </left>
+      <right style="thin">
+        <color rgb="00101010"/>
+      </right>
+      <top style="thin">
+        <color rgb="00101010"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00101010"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
@@ -125,6 +172,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -499,359 +550,359 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="inlineStr">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>(人民币百万元)</t>
         </is>
       </c>
-      <c r="B1" s="4" t="n"/>
-      <c r="C1" s="4" t="inlineStr">
+      <c r="B1" s="6" t="n"/>
+      <c r="C1" s="6" t="inlineStr">
         <is>
           <t>2018E</t>
         </is>
       </c>
-      <c r="D1" s="5" t="n"/>
-      <c r="E1" s="4" t="n"/>
-      <c r="F1" s="4" t="inlineStr">
+      <c r="D1" s="7" t="n"/>
+      <c r="E1" s="6" t="n"/>
+      <c r="F1" s="6" t="inlineStr">
         <is>
           <t>2019E</t>
         </is>
       </c>
-      <c r="G1" s="4" t="n"/>
+      <c r="G1" s="6" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n"/>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="A2" s="6" t="n"/>
+      <c r="B2" s="6" t="inlineStr">
         <is>
           <t>调整前</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="6" t="inlineStr">
         <is>
           <t>调整后</t>
         </is>
       </c>
-      <c r="D2" s="4" t="inlineStr">
+      <c r="D2" s="6" t="inlineStr">
         <is>
           <t>调整幅度</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="6" t="inlineStr">
         <is>
           <t>调整前</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" s="6" t="inlineStr">
         <is>
           <t>调整后</t>
         </is>
       </c>
-      <c r="G2" s="4" t="inlineStr">
+      <c r="G2" s="6" t="inlineStr">
         <is>
           <t>调整幅度</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="inlineStr">
+      <c r="A3" s="6" t="inlineStr">
         <is>
           <t>营业收入</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="B3" s="6" t="inlineStr">
         <is>
           <t>158</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="C3" s="6" t="inlineStr">
         <is>
           <t>132</t>
         </is>
       </c>
-      <c r="D3" s="4" t="inlineStr">
+      <c r="D3" s="6" t="inlineStr">
         <is>
           <t>-16.3%</t>
         </is>
       </c>
-      <c r="E3" s="4" t="inlineStr">
+      <c r="E3" s="6" t="inlineStr">
         <is>
           <t>186</t>
         </is>
       </c>
-      <c r="F3" s="4" t="inlineStr">
+      <c r="F3" s="6" t="inlineStr">
         <is>
           <t>138</t>
         </is>
       </c>
-      <c r="G3" s="4" t="inlineStr">
+      <c r="G3" s="6" t="inlineStr">
         <is>
           <t>-25.7%</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="inlineStr">
+      <c r="A4" s="6" t="inlineStr">
         <is>
           <t>毛利润</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="B4" s="6" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="C4" s="6" t="inlineStr">
         <is>
           <t>85</t>
         </is>
       </c>
-      <c r="D4" s="4" t="inlineStr">
+      <c r="D4" s="6" t="inlineStr">
         <is>
           <t>-15.1%</t>
         </is>
       </c>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="E4" s="6" t="inlineStr">
         <is>
           <t>124</t>
         </is>
       </c>
-      <c r="F4" s="4" t="inlineStr">
+      <c r="F4" s="6" t="inlineStr">
         <is>
           <t>91</t>
         </is>
       </c>
-      <c r="G4" s="4" t="inlineStr">
+      <c r="G4" s="6" t="inlineStr">
         <is>
           <t>-26.0%</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="inlineStr">
+      <c r="A5" s="6" t="inlineStr">
         <is>
           <t>营业利润</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="B5" s="6" t="inlineStr">
         <is>
           <t>73</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="C5" s="6" t="inlineStr">
         <is>
           <t>61</t>
         </is>
       </c>
-      <c r="D5" s="4" t="inlineStr">
+      <c r="D5" s="6" t="inlineStr">
         <is>
           <t>-15.5%</t>
         </is>
       </c>
-      <c r="E5" s="4" t="inlineStr">
+      <c r="E5" s="6" t="inlineStr">
         <is>
           <t>92</t>
         </is>
       </c>
-      <c r="F5" s="4" t="inlineStr">
+      <c r="F5" s="6" t="inlineStr">
         <is>
           <t>67</t>
         </is>
       </c>
-      <c r="G5" s="4" t="inlineStr">
+      <c r="G5" s="6" t="inlineStr">
         <is>
           <t>-26.9%</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+      <c r="A6" s="6" t="inlineStr">
         <is>
           <t>归母净利润</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B6" s="6" t="inlineStr">
         <is>
           <t>58</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C6" s="6" t="inlineStr">
         <is>
           <t>49</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
+      <c r="D6" s="6" t="inlineStr">
         <is>
           <t>-14.8%</t>
         </is>
       </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="E6" s="6" t="inlineStr">
         <is>
           <t>74</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="F6" s="6" t="inlineStr">
         <is>
           <t>54</t>
         </is>
       </c>
-      <c r="G6" s="4" t="inlineStr">
+      <c r="G6" s="6" t="inlineStr">
         <is>
           <t>-26.5%</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
+      <c r="A7" s="6" t="inlineStr">
         <is>
           <t>全面摊薄每股收益（元）</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
+      <c r="B7" s="6" t="inlineStr">
         <is>
           <t>0.16</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
+      <c r="C7" s="6" t="inlineStr">
         <is>
           <t>0.14</t>
         </is>
       </c>
-      <c r="D7" s="4" t="inlineStr">
+      <c r="D7" s="6" t="inlineStr">
         <is>
           <t>-14.8%</t>
         </is>
       </c>
-      <c r="E7" s="4" t="inlineStr">
+      <c r="E7" s="6" t="inlineStr">
         <is>
           <t>0.21</t>
         </is>
       </c>
-      <c r="F7" s="4" t="inlineStr">
+      <c r="F7" s="6" t="inlineStr">
         <is>
           <t>0.15</t>
         </is>
       </c>
-      <c r="G7" s="4" t="inlineStr">
+      <c r="G7" s="6" t="inlineStr">
         <is>
           <t>-26.5%</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="n"/>
-      <c r="B8" s="4" t="n"/>
-      <c r="C8" s="4" t="n"/>
-      <c r="D8" s="4" t="n"/>
-      <c r="E8" s="4" t="n"/>
-      <c r="F8" s="4" t="n"/>
-      <c r="G8" s="4" t="n"/>
+      <c r="A8" s="6" t="n"/>
+      <c r="B8" s="6" t="n"/>
+      <c r="C8" s="6" t="n"/>
+      <c r="D8" s="6" t="n"/>
+      <c r="E8" s="6" t="n"/>
+      <c r="F8" s="6" t="n"/>
+      <c r="G8" s="6" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="inlineStr">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>毛利率</t>
         </is>
       </c>
-      <c r="B9" s="4" t="inlineStr">
+      <c r="B9" s="6" t="inlineStr">
         <is>
           <t>63.2%</t>
         </is>
       </c>
-      <c r="C9" s="4" t="inlineStr">
+      <c r="C9" s="6" t="inlineStr">
         <is>
           <t>64.1%</t>
         </is>
       </c>
-      <c r="D9" s="4" t="inlineStr">
+      <c r="D9" s="6" t="inlineStr">
         <is>
           <t>0.9%</t>
         </is>
       </c>
-      <c r="E9" s="4" t="inlineStr">
+      <c r="E9" s="6" t="inlineStr">
         <is>
           <t>66.6%</t>
         </is>
       </c>
-      <c r="F9" s="4" t="inlineStr">
+      <c r="F9" s="6" t="inlineStr">
         <is>
           <t>66.4%</t>
         </is>
       </c>
-      <c r="G9" s="4" t="inlineStr">
+      <c r="G9" s="6" t="inlineStr">
         <is>
           <t>-0.2%</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="inlineStr">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>营业利润率</t>
         </is>
       </c>
-      <c r="B10" s="4" t="inlineStr">
+      <c r="B10" s="6" t="inlineStr">
         <is>
           <t>46.2%</t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr">
+      <c r="C10" s="6" t="inlineStr">
         <is>
           <t>46.6%</t>
         </is>
       </c>
-      <c r="D10" s="4" t="inlineStr">
+      <c r="D10" s="6" t="inlineStr">
         <is>
           <t>0.4%</t>
         </is>
       </c>
-      <c r="E10" s="4" t="inlineStr">
+      <c r="E10" s="6" t="inlineStr">
         <is>
           <t>49.6%</t>
         </is>
       </c>
-      <c r="F10" s="4" t="inlineStr">
+      <c r="F10" s="6" t="inlineStr">
         <is>
           <t>48.9%</t>
         </is>
       </c>
-      <c r="G10" s="4" t="inlineStr">
+      <c r="G10" s="6" t="inlineStr">
         <is>
           <t>-0.7%</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="inlineStr">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>净利润率</t>
         </is>
       </c>
-      <c r="B11" s="4" t="inlineStr">
+      <c r="B11" s="6" t="inlineStr">
         <is>
           <t>36.8%</t>
         </is>
       </c>
-      <c r="C11" s="4" t="inlineStr">
+      <c r="C11" s="6" t="inlineStr">
         <is>
           <t>37.4%</t>
         </is>
       </c>
-      <c r="D11" s="4" t="inlineStr">
+      <c r="D11" s="6" t="inlineStr">
         <is>
           <t>0.7%</t>
         </is>
       </c>
-      <c r="E11" s="4" t="inlineStr">
+      <c r="E11" s="6" t="inlineStr">
         <is>
           <t>39.6%</t>
         </is>
       </c>
-      <c r="F11" s="4" t="inlineStr">
+      <c r="F11" s="6" t="inlineStr">
         <is>
           <t>39.2%</t>
         </is>
       </c>
-      <c r="G11" s="4" t="inlineStr">
+      <c r="G11" s="6" t="inlineStr">
         <is>
           <t>-0.4%</t>
         </is>
